--- a/pacgame/Assets/win.xlsx
+++ b/pacgame/Assets/win.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\Pac-Pal\pacgame\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793D35F4-F5DD-4C9E-80C8-57754802814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ScaledFit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Age</t>
+  </si>
+  <si>
+    <t>ALL WINS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +363,714 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0.99967415113011204</v>
+      </c>
+      <c r="E2">
+        <v>-0.50000000000034095</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.49999999999965899</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.49999999999965899</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>0.99967415113011204</v>
+      </c>
+      <c r="E5">
+        <v>-0.50000000000034095</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037E4493-C155-434F-88F7-9D0A85F4BFDE}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>